--- a/Data/Players_Gral.xlsx
+++ b/Data/Players_Gral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freddy.Orozco\Documents\WS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDE54EE-D94A-4481-9D46-431AB8398721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA677D-D3F3-4770-8065-4063A103E42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9B919DF0-7B2C-46F8-B1BD-42EE47B7F334}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>Nombre</t>
   </si>
@@ -180,6 +180,42 @@
   </si>
   <si>
     <t>SD Aucas</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>Barcelona SC</t>
+  </si>
+  <si>
+    <t>Ethnikos</t>
+  </si>
+  <si>
+    <t>Primera División Chipre</t>
+  </si>
+  <si>
+    <t>ED</t>
   </si>
 </sst>
 </file>
@@ -554,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C473F008-0839-478F-8591-A9446BE269D0}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,7 +607,7 @@
     <col min="7" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +626,11 @@
       <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -610,8 +649,11 @@
       <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,8 +672,11 @@
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -650,8 +695,11 @@
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -670,8 +718,11 @@
       <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -690,8 +741,11 @@
       <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -710,8 +764,11 @@
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -730,8 +787,11 @@
       <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -750,108 +810,315 @@
       <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1999</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Players_Gral.xlsx
+++ b/Data/Players_Gral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freddy.Orozco\Documents\WS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA677D-D3F3-4770-8065-4063A103E42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD51432-4250-46D0-98ED-837AF8386648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9B919DF0-7B2C-46F8-B1BD-42EE47B7F334}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>Nombre</t>
   </si>
@@ -216,16 +216,42 @@
   </si>
   <si>
     <t>ED</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>https://t.ly/Wp6fG</t>
+  </si>
+  <si>
+    <t>https://t.ly/rgqWr</t>
+  </si>
+  <si>
+    <t>https://t.ly/X2Chj</t>
+  </si>
+  <si>
+    <t>https://t.ly/vvdbd</t>
+  </si>
+  <si>
+    <t>https://t.ly/AEuGc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,16 +274,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C473F008-0839-478F-8591-A9446BE269D0}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,10 +636,12 @@
     <col min="4" max="4" width="19.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.90625" style="1"/>
+    <col min="7" max="7" width="10.90625" style="1"/>
+    <col min="8" max="8" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,8 +663,11 @@
       <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -653,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -675,8 +712,11 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -699,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -722,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -745,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -768,7 +808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -791,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -814,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -822,7 +862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -844,8 +884,11 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -867,8 +910,11 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -891,7 +937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -914,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -937,7 +983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -960,7 +1006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -983,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1006,7 +1052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1029,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1051,8 +1097,11 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1075,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1098,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1120,8 +1169,18 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
+      <c r="H23" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{203AB718-B186-4147-BA6C-E0791293A446}"/>
+    <hyperlink ref="H23" r:id="rId2" xr:uid="{2D3DAD38-00B9-492E-AF2D-79F564A00A3B}"/>
+    <hyperlink ref="H12" r:id="rId3" xr:uid="{F57CA9B9-E8E2-44F5-AF41-5BB36E91A161}"/>
+    <hyperlink ref="H20" r:id="rId4" xr:uid="{C8D9521C-45FE-4078-8728-57F2EB2ABA19}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{C35DCD25-259D-4AE7-97CF-AD549904B324}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Players_Gral.xlsx
+++ b/Data/Players_Gral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freddy.Orozco\Documents\WS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD51432-4250-46D0-98ED-837AF8386648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F5039C-A78E-40BE-BA7C-D821B040A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9B919DF0-7B2C-46F8-B1BD-42EE47B7F334}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
   <si>
     <t>Nombre</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>https://t.ly/AEuGc</t>
+  </si>
+  <si>
+    <t>BD</t>
   </si>
 </sst>
 </file>
@@ -622,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C473F008-0839-478F-8591-A9446BE269D0}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,7 +644,7 @@
     <col min="9" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,8 +669,11 @@
       <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -690,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -716,7 +722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -739,7 +745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -762,7 +768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -785,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -808,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -831,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -854,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -862,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -888,7 +894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -914,7 +920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -937,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -960,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -983,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
